--- a/result_excel/result.xlsx
+++ b/result_excel/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zxf19\OneDrive\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MiniZinc\program\MCP_GROUP_CDMO\result_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083AA517-C87E-4B3A-A3C2-98B9F01E2BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F9DA79-5E07-4D2D-BA23-3DD845B7D0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-540" yWindow="1590" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>CP</t>
-  </si>
-  <si>
-    <t>SAT</t>
-  </si>
-  <si>
-    <t>SMT</t>
   </si>
   <si>
     <t>MIP</t>
@@ -42,76 +36,22 @@
     <t>Best</t>
   </si>
   <si>
-    <t>inst01</t>
-  </si>
-  <si>
     <t>Certified optimal value</t>
-  </si>
-  <si>
-    <t>inst02</t>
-  </si>
-  <si>
-    <t>inst03</t>
   </si>
   <si>
     <t>Uncertified optimal value</t>
   </si>
   <si>
-    <t>inst04</t>
-  </si>
-  <si>
-    <t>inst05</t>
-  </si>
-  <si>
     <t>Not optimal value</t>
   </si>
   <si>
-    <t>inst06</t>
+    <t>Optimize_SB</t>
   </si>
   <si>
-    <t>inst07</t>
+    <t>Optimize</t>
   </si>
   <si>
-    <t>inst08</t>
-  </si>
-  <si>
-    <t>inst09</t>
-  </si>
-  <si>
-    <t>inst10</t>
-  </si>
-  <si>
-    <t>inst11</t>
-  </si>
-  <si>
-    <t>inst12</t>
-  </si>
-  <si>
-    <t>inst13</t>
-  </si>
-  <si>
-    <t>inst14</t>
-  </si>
-  <si>
-    <t>inst15</t>
-  </si>
-  <si>
-    <t>inst16</t>
-  </si>
-  <si>
-    <t>inst17</t>
-  </si>
-  <si>
-    <t>inst18</t>
-  </si>
-  <si>
-    <t>inst19</t>
-  </si>
-  <si>
-    <t>inst20</t>
-  </si>
-  <si>
-    <t>inst21</t>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -220,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
@@ -252,9 +192,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -263,6 +200,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9900"/>
       <color rgb="FF00FF00"/>
     </mruColors>
   </colors>
@@ -543,11 +481,12 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -556,29 +495,29 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6">
+        <v>14</v>
       </c>
       <c r="D2" s="5" t="e">
         <v>#DIV/0!</v>
@@ -594,18 +533,18 @@
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5">
-        <v>306</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>226</v>
+      </c>
+      <c r="C3" s="6">
+        <v>226</v>
       </c>
       <c r="D3" s="5" t="e">
         <v>#DIV/0!</v>
@@ -624,13 +563,13 @@
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6">
+        <v>12</v>
       </c>
       <c r="D4" s="5" t="e">
         <v>#DIV/0!</v>
@@ -646,17 +585,17 @@
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>220</v>
+      </c>
+      <c r="C5" s="6">
         <v>220</v>
       </c>
       <c r="D5" s="5" t="e">
@@ -676,13 +615,13 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5">
-        <v>280</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>206</v>
+      </c>
+      <c r="C6" s="6">
+        <v>206</v>
       </c>
       <c r="D6" s="5" t="e">
         <v>#DIV/0!</v>
@@ -698,17 +637,17 @@
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="9" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>322</v>
+      </c>
+      <c r="C7" s="6">
         <v>322</v>
       </c>
       <c r="D7" s="5" t="e">
@@ -728,13 +667,13 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5">
-        <v>277</v>
+      <c r="C8" s="6">
+        <v>167</v>
       </c>
       <c r="D8" s="5" t="e">
         <v>#DIV/0!</v>
@@ -753,12 +692,12 @@
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>186</v>
+      </c>
+      <c r="C9" s="6">
         <v>186</v>
       </c>
       <c r="D9" s="5" t="e">
@@ -778,12 +717,12 @@
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6">
         <v>436</v>
       </c>
       <c r="D10" s="5" t="e">
@@ -803,12 +742,12 @@
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6">
         <v>244</v>
       </c>
       <c r="D11" s="5" t="e">
@@ -828,13 +767,13 @@
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="5">
-        <v>916</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" s="5" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="D12" s="5" t="e">
         <v>#DIV/0!</v>
@@ -853,13 +792,13 @@
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="5">
-        <v>510</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C13" s="5" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="D13" s="5" t="e">
         <v>#DIV/0!</v>
@@ -878,13 +817,13 @@
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1886</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C14" s="5" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="D14" s="5" t="e">
         <v>#DIV/0!</v>
@@ -903,13 +842,13 @@
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1410</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C15" s="5" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="D15" s="5" t="e">
         <v>#DIV/0!</v>
@@ -928,13 +867,13 @@
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1202</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C16" s="5" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="D16" s="5" t="e">
         <v>#DIV/0!</v>
@@ -953,13 +892,13 @@
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="5">
-        <v>286</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C17" s="5" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="D17" s="5" t="e">
         <v>#DIV/0!</v>
@@ -978,13 +917,13 @@
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1947</v>
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C18" s="5" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="D18" s="5" t="e">
         <v>#DIV/0!</v>
@@ -1003,13 +942,13 @@
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1150</v>
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C19" s="5" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="D19" s="5" t="e">
         <v>#DIV/0!</v>
@@ -1028,13 +967,13 @@
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="5">
-        <v>456</v>
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C20" s="5" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="D20" s="5" t="e">
         <v>#DIV/0!</v>
@@ -1053,13 +992,13 @@
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="5">
-        <v>3034</v>
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C21" s="5" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="D21" s="5" t="e">
         <v>#DIV/0!</v>
@@ -1078,13 +1017,13 @@
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="5">
-        <v>1012</v>
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C22" s="5" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="D22" s="5" t="e">
         <v>#DIV/0!</v>
